--- a/Datos/Database by set/Set with text box/Xlsx sets/Future Sight Promos (PFUT).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Future Sight Promos (PFUT).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,91 +444,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Korlash, Heir to Blackblade</t>
+          <t>('Korlash, Heir to Blackblade', ['{2}{B}{B}', 'Legendary Creature — Zombie Warrior', 'Korlash, Heir to Blackblade’s power and toughness are each equal to the number of Swamps you control.', '{1}{B}: Regenerate Korlash.', 'Grandeur — Discard another card named Korlash, Heir to Blackblade: Search your library for up to two Swamp cards, put them onto the battlefield tapped, then shuffle your library.', '*/*'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{2}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Legendary Creature — Zombie Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Korlash, Heir to Blackblade’s power and toughness are each equal to the number of Swamps you control.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>{1}{B}: Regenerate Korlash.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Grandeur — Discard another card named Korlash, Heir to Blackblade: Search your library for up to two Swamp cards, put them onto the battlefield tapped, then shuffle your library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>*/*</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Storm Entity</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>{1}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Creature — Elemental</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Haste</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Storm Entity enters the battlefield with a +1/+1 counter on it for each other spell cast this turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>1/1</t>
+          <t>('Storm Entity', ['{1}{R}', 'Creature — Elemental', 'Haste', 'Storm Entity enters the battlefield with a +1/+1 counter on it for each other spell cast this turn.', '1/1'])</t>
         </is>
       </c>
     </row>
